--- a/src/cab/perm/falcon.fm.trans.xlsx
+++ b/src/cab/perm/falcon.fm.trans.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C29CE81-93B2-BD4C-8D0A-13ABDC1EB1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F81E7FA-D97C-2546-81A2-410EA149EEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56560" yWindow="-5220" windowWidth="50720" windowHeight="27100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-41500" yWindow="-7240" windowWidth="50720" windowHeight="27100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -41,24 +41,6 @@
     <t>e501b47a-c08b-4c83-b12b-95ad82873e96</t>
   </si>
   <si>
-    <t>应收退款读取</t>
-  </si>
-  <si>
-    <t>应收退款添加</t>
-  </si>
-  <si>
-    <t>应收退款更新</t>
-  </si>
-  <si>
-    <t>应收退款删除</t>
-  </si>
-  <si>
-    <t>应收退款列变更</t>
-  </si>
-  <si>
-    <t>应收退款导入/导出</t>
-  </si>
-  <si>
     <t>S_VIEW</t>
   </si>
   <si>
@@ -131,40 +113,58 @@
     <t>criteria</t>
   </si>
   <si>
-    <t>ec11f8a3-304a-4584-97b0-2e0014ebbd69</t>
-  </si>
-  <si>
-    <t>c2dacaa0-198e-41c3-ab69-722be35dbc55</t>
-  </si>
-  <si>
-    <t>346439f7-2141-4088-910d-a2afb5195e15</t>
-  </si>
-  <si>
-    <t>d72eb213-9683-4701-a770-9453e417eb34</t>
-  </si>
-  <si>
-    <t>eb3abe5b-a821-4859-933c-8c5d2201006c</t>
-  </si>
-  <si>
-    <t>86cf56ff-e079-44e8-a12c-29ed59a2e575</t>
+    <t>38b8cbed-519a-4694-ae29-11b5900f47bf</t>
+  </si>
+  <si>
+    <t>f748a672-3bd0-4194-b6b0-c54cb44444cf</t>
+  </si>
+  <si>
+    <t>9b934481-5998-46cd-b676-843ab3f68cd3</t>
+  </si>
+  <si>
+    <t>9a2bbc2a-b350-40ae-b8de-bcec0e46560b</t>
+  </si>
+  <si>
+    <t>43302d2d-6905-4d79-8005-90a171365023</t>
+  </si>
+  <si>
+    <t>fd6cabdb-ca63-42b5-b1c8-f97345e0b999</t>
+  </si>
+  <si>
+    <t>交易读取</t>
+  </si>
+  <si>
+    <t>交易添加</t>
+  </si>
+  <si>
+    <t>交易更新</t>
+  </si>
+  <si>
+    <t>交易删除</t>
+  </si>
+  <si>
+    <t>交易列变更</t>
+  </si>
+  <si>
+    <t>交易导入/导出</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -172,14 +172,14 @@
     <font>
       <sz val="16"/>
       <color rgb="FF0070C0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF0070C0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -187,14 +187,14 @@
     <font>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -348,9 +348,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -388,7 +388,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -494,7 +494,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -636,7 +636,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -647,10 +647,10 @@
   <dimension ref="A5:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="55.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="54.33203125" style="1" customWidth="1"/>
@@ -667,7 +667,7 @@
     <col min="14" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -678,7 +678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
@@ -687,7 +687,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -696,73 +696,73 @@
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+    </row>
+    <row r="9" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+    </row>
+    <row r="10" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+    </row>
+    <row r="11" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+    </row>
+    <row r="12" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+    </row>
+    <row r="13" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+    </row>
+    <row r="16" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
@@ -771,22 +771,22 @@
       <c r="G16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="G17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
@@ -797,74 +797,74 @@
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="H19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="I19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="J19" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="K19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="12" t="s">
+    </row>
+    <row r="20" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="B20" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="D20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="13" t="s">
+      <c r="E20" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="K19" s="12" t="s">
+      <c r="F20" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="8" t="s">
+      <c r="G20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="H20" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="I20" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="J20" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="K20" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
